--- a/biology/Zoologie/Capra_aegagrus/Capra_aegagrus.xlsx
+++ b/biology/Zoologie/Capra_aegagrus/Capra_aegagrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chèvre sauvage, Chèvre à bézoard, Chèvre égagre
 Capra aegagrus, la Chèvre sauvage, Chèvre à bézoard ou Chèvre égagre, est une espèce de mammifères ruminants de la famille des Bovidés, qui habite les forêts, les broussailles et les zones rocheuses allant de la Turquie et du Caucase à l'Ouest au Turkménistan, à l'Afghanistan et au Pakistan de l'Est. Elle a été répertoriée comme espèce quasi menacée sur la Liste rouge de l'UICN, menacée par la destruction et la dégradation de son habitat. C'est l'ancêtre de la Chèvre domestique (Capra hircus).
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les sous-espèces suivantes lui sont rattachées[réf. nécessaire] :
 Capra aegagrus aegagrus Erxleben, 1777
@@ -546,11 +560,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Capra aegagrus est le nom scientifique proposé par Johann Christian Polycarp Erxleben en 1777 pour les populations de chèvres sauvages du Caucase et des montagnes du Taurus. Le nom Capra blythi proposé par Allan Octavian Hume en 1874 se rapporte à des cornes de chèvre sauvage du Sind.
-Dans la version de 2005 (plus mise à jour depuis) de Mammal Species of the World (version 3, 2005)  (16 juillet 2023)[1], suivie par ITIS      (16 juillet 2023)[2], Catalogue of Life                                   (16 juillet 2023)[3] et GBIF       (16 juillet 2023)[4], Capra aegagrus Erxleben, 1777 est synonyme du nom valide Capra hircus aegagrus Erxleben, 1777.
-L'espèce porte en français les noms de « Chèvre sauvage », « Chèvre à bézoard » ou « Chèvre égagre »[4].
+Dans la version de 2005 (plus mise à jour depuis) de Mammal Species of the World (version 3, 2005)  (16 juillet 2023), suivie par ITIS      (16 juillet 2023), Catalogue of Life                                   (16 juillet 2023) et GBIF       (16 juillet 2023), Capra aegagrus Erxleben, 1777 est synonyme du nom valide Capra hircus aegagrus Erxleben, 1777.
+L'espèce porte en français les noms de « Chèvre sauvage », « Chèvre à bézoard » ou « Chèvre égagre ».
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'Est en Ouest, les formes sauvages se trouvent en Afghanistan, dans le sud du Pakistan, à travers tout l'Iran, dans le Turkménistan occidental, dans le nord de l'Irak, dans le Caucase (Arménie, Azerbaïdjan, nord de la Géorgie, et sud de la Russie), dans le sud et l'est de la Turquie et en Crète.
 Les formes domestiques (autrefois, et parfois encore, dénommées Capra hircus) se trouvent sur tous les continents, sauf en Antarctique.
